--- a/data/main.xlsx
+++ b/data/main.xlsx
@@ -1,37 +1,185 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01131252\Downloads\MED-project-master\MED-project-master\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F565AFC2-75A1-4D23-9D46-2F887AE51176}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>happiness</t>
+  </si>
+  <si>
+    <t>bad_conditions</t>
+  </si>
+  <si>
+    <t>culture</t>
+  </si>
+  <si>
+    <t>health_estimate</t>
+  </si>
+  <si>
+    <t>commute</t>
+  </si>
+  <si>
+    <t>education_underachievements</t>
+  </si>
+  <si>
+    <t>minimum_wage</t>
+  </si>
+  <si>
+    <t>unmet_medical_needs</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +194,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,1182 +518,1104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>country</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>happiness</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>bad_conditions</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>culture</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>health_estimate</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>commute</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>education_underachievements</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>minimum_wage</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>unmet_medical_needs</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>8858775</v>
       </c>
-      <c r="C2" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D2">
         <v>10.4</v>
       </c>
-      <c r="E2" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="F2" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="G2">
         <v>39.6</v>
       </c>
-      <c r="H2" t="n">
-        <v>21.68872966255149</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>21.688729662551491</v>
+      </c>
+      <c r="I2">
         <v>1500</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>11467923</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>21.2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>18</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>20.55</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>74.5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>48.2</v>
       </c>
-      <c r="H3" t="n">
-        <v>19.79848473252642</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3">
+        <v>19.798484732526418</v>
+      </c>
+      <c r="I3">
         <v>1501.82</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>1.8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>7000039</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>9.5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>6.68</v>
       </c>
-      <c r="F4" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G4">
         <v>33.4</v>
       </c>
-      <c r="H4" t="n">
-        <v>40.45663905719772</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>40.456639057197719</v>
+      </c>
+      <c r="I4">
         <v>184.07</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>1.9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
         <v>4076246</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>16.5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>11.2</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>9.02</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>60.7</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>37.9</v>
       </c>
-      <c r="H5" t="n">
-        <v>25.02146423286092</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5">
+        <v>25.021464232860922</v>
+      </c>
+      <c r="I5">
         <v>395.61</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>1.4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Cyprus</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
         <v>875898</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>22.4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>30.2</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>8.85</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>76.3</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>22.4</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>39.96813629100771</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>870</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>1.4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Czechia</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
         <v>10649800</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>29.5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>7.7</v>
       </c>
-      <c r="E7" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="F7">
         <v>61.6</v>
       </c>
-      <c r="G7" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>21.45940057741097</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="G7">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H7">
+        <v>21.459400577410971</v>
+      </c>
+      <c r="I7">
         <v>331.71</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
         <v>5806081</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>41.3</v>
       </c>
-      <c r="D8" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E8">
         <v>15.7</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>71.3</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>48.3</v>
       </c>
-      <c r="H8" t="n">
-        <v>14.80275088870697</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8">
+        <v>14.802750888706971</v>
+      </c>
+      <c r="I8">
         <v>3200</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>1.3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Estonia</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
         <v>1324820</v>
       </c>
-      <c r="C9" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="D9">
         <v>13.6</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>16.78</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>54.6</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>42.2</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>10.14694999236681</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>390</v>
       </c>
-      <c r="J9" t="n">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="J9">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
         <v>5517919</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>41.1</v>
       </c>
-      <c r="D10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E10">
         <v>20.88</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>68.7</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>48.5</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>12.01858232103679</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>800</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>4.7</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
         <v>67028048</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>18.3</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>12.7</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>19.75</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>67.8</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>44.9</v>
       </c>
-      <c r="H11" t="n">
-        <v>22.35113244082241</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11">
+        <v>22.351132440822411</v>
+      </c>
+      <c r="I11">
         <v>1457.52</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>1.2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
         <v>83019213</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>28.3</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>13.4</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>16.32</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>64.8</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>45.3</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>16.79438587921863</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>1440</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
         <v>10722287</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>13.5</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>12.9</v>
       </c>
-      <c r="E13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F13">
         <v>75.8</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>32.6</v>
       </c>
-      <c r="H13" t="n">
-        <v>31.73446215158464</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13">
+        <v>31.734462151584641</v>
+      </c>
+      <c r="I13">
         <v>683.76</v>
       </c>
-      <c r="J13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="J13">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
         <v>9772756</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>13.1</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>22.5</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>9.32</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>60.8</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>43.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>27.15322121032592</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14">
+        <v>27.153221210325921</v>
+      </c>
+      <c r="I14">
         <v>332.76</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>0.8</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
         <v>356991</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>40.5</v>
       </c>
-      <c r="D15" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E15">
         <v>30.4</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>75.8</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>23.63060999814627</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="G15">
+        <v>39.57</v>
+      </c>
+      <c r="H15">
+        <v>23.630609998146269</v>
+      </c>
+      <c r="I15">
         <v>2190</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>2.9</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
         <v>4904226</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>43.2</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>11.9</v>
       </c>
-      <c r="E16" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="F16" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="E16">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="F16">
+        <v>83.6</v>
+      </c>
+      <c r="G16">
         <v>48.4</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>13.27784579418651</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>1461.85</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>2</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
         <v>60359546</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>18</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>13.2</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>9.98</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>72.2</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>28</v>
       </c>
-      <c r="H17" t="n">
-        <v>22.47438071660685</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17">
+        <v>22.474380716606849</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>2.4</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Latvia</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
         <v>1919968</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>15.3</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>23.5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>12.68</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>50.6</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>48.9</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>18.67691585677202</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>360</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>6.2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
         <v>2794184</v>
       </c>
-      <c r="C19" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D19">
         <v>14.8</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>8.82</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>44.1</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>34.4</v>
       </c>
-      <c r="H19" t="n">
-        <v>25.06502432684555</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19">
+        <v>25.065024326845549</v>
+      </c>
+      <c r="I19">
         <v>300</v>
       </c>
-      <c r="J19" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Luxembourg</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+      <c r="J19">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
         <v>613894</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>26.3</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>18.3</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>25.28</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>67.7</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>45.2</v>
       </c>
-      <c r="H20" t="n">
-        <v>25.76636443697218</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H20">
+        <v>25.766364436972179</v>
+      </c>
+      <c r="I20">
         <v>1922.96</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>0.3</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
         <v>493559</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>26.6</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>7.1</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>11.82</v>
       </c>
-      <c r="F21" t="n">
-        <v>74.40000000000001</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="G21">
         <v>43.4</v>
       </c>
-      <c r="H21" t="n">
-        <v>32.29055051755483</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H21">
+        <v>32.290550517554827</v>
+      </c>
+      <c r="I21">
         <v>720.46</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>0.2</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
         <v>17282163</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>23.9</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>15.8</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>25.22</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>75.7</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>45.1</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>17.74961448610566</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>1501.8</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>0.2</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
         <v>5328212</v>
       </c>
-      <c r="C23" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D23">
         <v>6.8</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>25.65</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>75.8</v>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="G23">
+        <v>39.57</v>
+      </c>
+      <c r="H23">
         <v>16.82705038425085</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>2744</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>1.4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
         <v>37972812</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>35.9</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>11.6</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>6.48</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>59.1</v>
       </c>
-      <c r="G24" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="H24" t="n">
-        <v>15.92304715121077</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="G24">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H24">
+        <v>15.923047151210771</v>
+      </c>
+      <c r="I24">
         <v>409.53</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>4.2</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
         <v>10276617</v>
       </c>
-      <c r="C25" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="D25">
         <v>26.9</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>14.12</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>49</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>25.4</v>
       </c>
-      <c r="H25" t="n">
-        <v>19.24058256398257</v>
-      </c>
-      <c r="I25" t="n">
-        <v>589.17</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="H25">
+        <v>19.240582563982571</v>
+      </c>
+      <c r="I25">
+        <v>589.16999999999996</v>
+      </c>
+      <c r="J25">
         <v>2.1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
         <v>19401658</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>24.7</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>10.1</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>6.6</v>
       </c>
-      <c r="F26" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="G26" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="H26" t="n">
-        <v>39.02847033561296</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="F26">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G26">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="H26">
+        <v>39.028470335612958</v>
+      </c>
+      <c r="I26">
         <v>217.5</v>
       </c>
-      <c r="J26" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+      <c r="J26">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
         <v>6963764</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>7.5</v>
       </c>
-      <c r="D27" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E27">
         <v>7.48</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>56.4</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
-        <v>35.58622168062772</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="G27">
+        <v>39.57</v>
+      </c>
+      <c r="H27">
+        <v>35.586221680627723</v>
+      </c>
+      <c r="I27">
         <v>235.04</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>5.8</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
         <v>5450421</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>27.5</v>
       </c>
-      <c r="D28" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E28">
         <v>11.9</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>66.7</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>34.1</v>
       </c>
-      <c r="H28" t="n">
-        <v>30.10978993773048</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="H28">
+        <v>30.109789937730479</v>
+      </c>
+      <c r="I28">
         <v>380</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>2.6</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
         <v>2080908</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>24.6</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>22.7</v>
       </c>
-      <c r="E29" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F29" t="n">
-        <v>65.09999999999999</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="E29">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F29">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="G29">
         <v>39.9</v>
       </c>
-      <c r="H29" t="n">
-        <v>15.39210535933661</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="H29">
+        <v>15.392105359336609</v>
+      </c>
+      <c r="I29">
         <v>790.73</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>3.3</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
         <v>46934632</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>24.4</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>15.9</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>15.35</v>
       </c>
-      <c r="F30" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="G30" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="F30">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="G30">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H30">
         <v>18.74014842471799</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>756.7</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>0.2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
         <v>10230185</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>35</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>7.8</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>22.22</v>
       </c>
-      <c r="F31" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="F31">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="G31">
         <v>50</v>
       </c>
-      <c r="H31" t="n">
-        <v>20.21986739252113</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="H31">
+        <v>20.219867392521131</v>
+      </c>
+      <c r="I31">
         <v>2080</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>1.5</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
         <v>8542323</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>38</v>
       </c>
-      <c r="D32" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E32">
         <v>30.85</v>
       </c>
-      <c r="F32" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
-        <v>18.01439178225896</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="F32">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="G32">
+        <v>39.57</v>
+      </c>
+      <c r="H32">
+        <v>18.014391782258961</v>
+      </c>
+      <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>0.7</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
         <v>82003882</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>15</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>38.1</v>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
+      <c r="E33">
+        <v>14.5</v>
+      </c>
+      <c r="F33">
         <v>68.7</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>45.06033060245183</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="G33">
+        <v>39.57</v>
+      </c>
+      <c r="H33">
+        <v>45.060330602451828</v>
+      </c>
+      <c r="I33">
         <v>424.26</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>2.6</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
         <v>66647112</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>31.7</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>17.7</v>
       </c>
-      <c r="E34" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="E34">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F34">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G34">
         <v>52.5</v>
       </c>
-      <c r="H34" t="n">
-        <v>18.96482318676017</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="H34">
+        <v>18.964823186760171</v>
+      </c>
+      <c r="I34">
         <v>1378.87</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>4.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>